--- a/Master_comp1.xlsx
+++ b/Master_comp1.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\612721\1_Projects\Bourbon_Chasers_MASTER\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\612721\1_Projects\Bourbon_Chasers_MASTER\Bourbon_Chasers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728E53AC-14A2-42DD-930C-16D7DD723A71}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAACB18-0EFD-4D5E-B514-5B1CAAE93EE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2F673687-A6FC-4393-90C1-F2F74E9241DA}"/>
+    <workbookView xWindow="-22470" yWindow="4785" windowWidth="19200" windowHeight="9450" xr2:uid="{2F673687-A6FC-4393-90C1-F2F74E9241DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -433,7 +434,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -452,26 +453,29 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>794.4</v>
+        <f>346.2+750</f>
+        <v>1096.2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>750</v>
+        <f>294.3+677.7</f>
+        <v>972</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
-        <v>677.7</v>
+        <f>89.3+794.4</f>
+        <v>883.69999999999993</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -479,7 +483,8 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>482.4</v>
+        <f>482.4+250.3</f>
+        <v>732.7</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -487,23 +492,26 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>410.8</v>
+        <f>410.8+290.2</f>
+        <v>701</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>326.89999999999998</v>
+        <f>367.8+255</f>
+        <v>622.79999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>255</v>
+        <f>282.9+326.9</f>
+        <v>609.79999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -511,7 +519,8 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>156.19999999999999</v>
+        <f>320.8+156.2</f>
+        <v>477</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -519,7 +528,8 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>36</v>
+        <f>36+88.5</f>
+        <v>124.5</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -527,7 +537,8 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>24</v>
+        <f>24+30</f>
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/Master_comp1.xlsx
+++ b/Master_comp1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\612721\1_Projects\Bourbon_Chasers_MASTER\Bourbon_Chasers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BAACB18-0EFD-4D5E-B514-5B1CAAE93EE5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EBC607-605A-440F-8431-9E3E659E0EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-22470" yWindow="4785" windowWidth="19200" windowHeight="9450" xr2:uid="{2F673687-A6FC-4393-90C1-F2F74E9241DA}"/>
   </bookViews>

--- a/Master_comp1.xlsx
+++ b/Master_comp1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\612721\1_Projects\Bourbon_Chasers_MASTER\Bourbon_Chasers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5EBC607-605A-440F-8431-9E3E659E0EAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DDDC73-8C8A-4DDF-B9F8-FB7C5AA036BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22470" yWindow="4785" windowWidth="19200" windowHeight="9450" xr2:uid="{2F673687-A6FC-4393-90C1-F2F74E9241DA}"/>
+    <workbookView xWindow="0" yWindow="750" windowWidth="19200" windowHeight="9450" xr2:uid="{2F673687-A6FC-4393-90C1-F2F74E9241DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,8 +456,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <f>346.2+750</f>
-        <v>1096.2</v>
+        <v>1384.8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -465,8 +464,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <f>294.3+677.7</f>
-        <v>972</v>
+        <v>1266.3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -474,44 +472,39 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <f>89.3+794.4</f>
-        <v>883.69999999999993</v>
+        <v>1010.6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <f>482.4+250.3</f>
-        <v>732.7</v>
+        <v>954.6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <f>410.8+290.2</f>
-        <v>701</v>
+        <v>845.6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <f>367.8+255</f>
-        <v>622.79999999999995</v>
+        <v>788.6</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <f>282.9+326.9</f>
-        <v>609.79999999999995</v>
+        <v>671.2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -519,8 +512,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <f>320.8+156.2</f>
-        <v>477</v>
+        <v>671.2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -528,8 +520,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <f>36+88.5</f>
-        <v>124.5</v>
+        <v>250.8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -537,8 +528,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <f>24+30</f>
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/Master_comp1.xlsx
+++ b/Master_comp1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\612721\1_Projects\Bourbon_Chasers_MASTER\Bourbon_Chasers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79DDDC73-8C8A-4DDF-B9F8-FB7C5AA036BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBF95B8-07C4-494A-BCE8-2216F9E0991D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="750" windowWidth="19200" windowHeight="9450" xr2:uid="{2F673687-A6FC-4393-90C1-F2F74E9241DA}"/>
+    <workbookView xWindow="-22845" yWindow="1725" windowWidth="19200" windowHeight="9450" xr2:uid="{2F673687-A6FC-4393-90C1-F2F74E9241DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -434,7 +434,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -456,7 +456,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1384.8</v>
+        <v>1587.8</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -464,7 +464,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1266.3</v>
+        <v>1478.3</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
@@ -472,7 +472,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1010.6</v>
+        <v>1276.9000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -480,7 +480,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>954.6</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -488,7 +488,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>845.6</v>
+        <v>884.2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -496,7 +496,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>788.6</v>
+        <v>865.8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -504,7 +504,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>671.2</v>
+        <v>836.8</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -512,7 +512,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>671.2</v>
+        <v>743.8</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -520,7 +520,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>250.8</v>
+        <v>451.8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -528,7 +528,7 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>79</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>

--- a/Master_comp1.xlsx
+++ b/Master_comp1.xlsx
@@ -8,15 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\612721\1_Projects\Bourbon_Chasers_MASTER\Bourbon_Chasers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DBF95B8-07C4-494A-BCE8-2216F9E0991D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4247AEA4-9E2B-47CF-A58E-7FE91D377D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-22845" yWindow="1725" windowWidth="19200" windowHeight="9450" xr2:uid="{2F673687-A6FC-4393-90C1-F2F74E9241DA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2F673687-A6FC-4393-90C1-F2F74E9241DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -76,6 +75,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -114,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -431,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D4DD5A3-4319-4688-8054-5D3F0724678E}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -443,7 +446,7 @@
     <col min="2" max="2" width="10.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>11</v>
       </c>
@@ -451,85 +454,95 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1587.8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1975.9</v>
+      </c>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1478.3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1721.5</v>
+      </c>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1276.9000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1650.3</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1149</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1387.6</v>
+      </c>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>884.2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+        <v>1339.6</v>
+      </c>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1174</v>
+      </c>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>865.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>6</v>
-      </c>
       <c r="B8">
-        <v>836.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+        <v>909.1</v>
+      </c>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>743.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>451.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+        <v>621.5</v>
+      </c>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>141</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="H11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Master_comp1.xlsx
+++ b/Master_comp1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\612721\1_Projects\Bourbon_Chasers_MASTER\Bourbon_Chasers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4247AEA4-9E2B-47CF-A58E-7FE91D377D94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA8940C-EB30-4D2A-971D-BFE90B86FE5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2F673687-A6FC-4393-90C1-F2F74E9241DA}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,8 +459,9 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>1975.9</v>
-      </c>
+        <v>2245.5</v>
+      </c>
+      <c r="D2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -468,8 +469,9 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1721.5</v>
-      </c>
+        <v>2201.5</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -477,26 +479,29 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>1650.3</v>
-      </c>
+        <v>2079.3000000000002</v>
+      </c>
+      <c r="D4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B5">
-        <v>1387.6</v>
-      </c>
+        <v>1645.7</v>
+      </c>
+      <c r="D5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
-        <v>1339.6</v>
-      </c>
+        <v>1590.7</v>
+      </c>
+      <c r="D6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -504,8 +509,9 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1174</v>
-      </c>
+        <v>1390.1</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -513,8 +519,9 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>909.1</v>
-      </c>
+        <v>1117.3</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -524,6 +531,7 @@
       <c r="B9">
         <v>743.8</v>
       </c>
+      <c r="D9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -531,8 +539,9 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>621.5</v>
-      </c>
+        <v>811.1</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -542,6 +551,7 @@
       <c r="B11">
         <v>182</v>
       </c>
+      <c r="D11" s="2"/>
       <c r="H11" s="2"/>
     </row>
   </sheetData>

--- a/Master_comp1.xlsx
+++ b/Master_comp1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\612721\1_Projects\Bourbon_Chasers_MASTER\Bourbon_Chasers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BA8940C-EB30-4D2A-971D-BFE90B86FE5E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5490052A-9A8B-42C5-B124-F42DE09AC332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2F673687-A6FC-4393-90C1-F2F74E9241DA}"/>
   </bookViews>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E2" sqref="E2:F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,9 +459,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2245.5</v>
+        <v>2647.6</v>
       </c>
       <c r="D2" s="2"/>
+      <c r="F2" s="2"/>
       <c r="H2" s="2"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
@@ -469,9 +470,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2201.5</v>
+        <v>2511.1999999999998</v>
       </c>
       <c r="D3" s="2"/>
+      <c r="F3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
@@ -479,9 +481,10 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2079.3000000000002</v>
+        <v>2431.6999999999998</v>
       </c>
       <c r="D4" s="2"/>
+      <c r="F4" s="2"/>
       <c r="H4" s="2"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
@@ -489,9 +492,10 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1645.7</v>
+        <v>1870.4</v>
       </c>
       <c r="D5" s="2"/>
+      <c r="F5" s="2"/>
       <c r="H5" s="2"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -499,9 +503,10 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1590.7</v>
+        <v>1813.9</v>
       </c>
       <c r="D6" s="2"/>
+      <c r="F6" s="2"/>
       <c r="H6" s="2"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -509,9 +514,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1390.1</v>
+        <v>1494.1</v>
       </c>
       <c r="D7" s="2"/>
+      <c r="F7" s="2"/>
       <c r="H7" s="2"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
@@ -519,9 +525,10 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1117.3</v>
+        <v>1240.9000000000001</v>
       </c>
       <c r="D8" s="2"/>
+      <c r="F8" s="2"/>
       <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
@@ -529,9 +536,10 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>743.8</v>
+        <v>1013.7</v>
       </c>
       <c r="D9" s="2"/>
+      <c r="F9" s="2"/>
       <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
@@ -539,9 +547,10 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>811.1</v>
+        <v>862.3</v>
       </c>
       <c r="D10" s="2"/>
+      <c r="F10" s="2"/>
       <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
@@ -552,6 +561,7 @@
         <v>182</v>
       </c>
       <c r="D11" s="2"/>
+      <c r="F11" s="2"/>
       <c r="H11" s="2"/>
     </row>
   </sheetData>

--- a/Master_comp1.xlsx
+++ b/Master_comp1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\612721\1_Projects\Bourbon_Chasers_MASTER\Bourbon_Chasers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5490052A-9A8B-42C5-B124-F42DE09AC332}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9D6B97-ADB9-4DA0-8E33-DBEEB9D0C381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2F673687-A6FC-4393-90C1-F2F74E9241DA}"/>
+    <workbookView xWindow="0" yWindow="720" windowWidth="19200" windowHeight="10080" xr2:uid="{2F673687-A6FC-4393-90C1-F2F74E9241DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2647.6</v>
+        <v>2969.1</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2511.1999999999998</v>
+        <v>2616.1</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
@@ -481,7 +481,7 @@
         <v>1</v>
       </c>
       <c r="B4">
-        <v>2431.6999999999998</v>
+        <v>2605.4</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="2"/>
@@ -492,7 +492,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>1870.4</v>
+        <v>2011.5</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="2"/>
@@ -503,7 +503,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1813.9</v>
+        <v>1897.7</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
@@ -514,7 +514,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1494.1</v>
+        <v>1573.3</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="2"/>
@@ -525,7 +525,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1240.9000000000001</v>
+        <v>1515.8</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
@@ -536,7 +536,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>1013.7</v>
+        <v>1101.7</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
@@ -547,7 +547,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>862.3</v>
+        <v>928.2</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>

--- a/Master_comp1.xlsx
+++ b/Master_comp1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\612721\1_Projects\Bourbon_Chasers_MASTER\Bourbon_Chasers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9D6B97-ADB9-4DA0-8E33-DBEEB9D0C381}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F98E7E-6E8C-4D34-A78E-22EBE469DDBC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="720" windowWidth="19200" windowHeight="10080" xr2:uid="{2F673687-A6FC-4393-90C1-F2F74E9241DA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2F673687-A6FC-4393-90C1-F2F74E9241DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -437,7 +437,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -459,7 +459,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>2969.1</v>
+        <v>3291.5</v>
       </c>
       <c r="D2" s="2"/>
       <c r="F2" s="2"/>
@@ -467,10 +467,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>2616.1</v>
+        <v>3063.6</v>
       </c>
       <c r="D3" s="2"/>
       <c r="F3" s="2"/>
@@ -478,10 +478,10 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>2605.4</v>
+        <v>2712</v>
       </c>
       <c r="D4" s="2"/>
       <c r="F4" s="2"/>
@@ -492,7 +492,7 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>2011.5</v>
+        <v>2266.6999999999998</v>
       </c>
       <c r="D5" s="2"/>
       <c r="F5" s="2"/>
@@ -503,7 +503,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1897.7</v>
+        <v>1936.4</v>
       </c>
       <c r="D6" s="2"/>
       <c r="F6" s="2"/>
@@ -514,7 +514,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>1573.3</v>
+        <v>1690.7</v>
       </c>
       <c r="D7" s="2"/>
       <c r="F7" s="2"/>
@@ -525,7 +525,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>1515.8</v>
+        <v>1655.3</v>
       </c>
       <c r="D8" s="2"/>
       <c r="F8" s="2"/>
@@ -533,10 +533,10 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B9">
-        <v>1101.7</v>
+        <v>1140.9000000000001</v>
       </c>
       <c r="D9" s="2"/>
       <c r="F9" s="2"/>
@@ -544,10 +544,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>928.2</v>
+        <v>1101.7</v>
       </c>
       <c r="D10" s="2"/>
       <c r="F10" s="2"/>
